--- a/src/TestData/Registration.xlsx
+++ b/src/TestData/Registration.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9D0A74A0-83FD-4F11-9014-715747733FBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26409C57-68B8-4605-ABCC-AD613E43F40F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,13 +31,13 @@
     <t>Email</t>
   </si>
   <si>
-    <t>nagaraju</t>
-  </si>
-  <si>
-    <t>nagarajuramisetty@gmail.com</t>
-  </si>
-  <si>
-    <t>Host@123</t>
+    <t>Host@1234</t>
+  </si>
+  <si>
+    <t>test123456op2146</t>
+  </si>
+  <si>
+    <t>test123456op2148@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -417,7 +417,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{F914D97D-9AB4-479F-B5C1-406A7A6E213A}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{97DB114C-4032-48AF-AB5D-283D23F1C381}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/TestData/Registration.xlsx
+++ b/src/TestData/Registration.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26409C57-68B8-4605-ABCC-AD613E43F40F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{1622AA6F-BF82-4872-A45F-4C058E991DAE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="2130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="signIN" sheetId="1" r:id="rId1"/>
+    <sheet name="Password_Invalid" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>UserName</t>
   </si>
@@ -34,10 +36,19 @@
     <t>Host@1234</t>
   </si>
   <si>
-    <t>test123456op2146</t>
-  </si>
-  <si>
-    <t>test123456op2148@gmail.com</t>
+    <t>m78852</t>
+  </si>
+  <si>
+    <t>GMyuser123467@gmail.com</t>
+  </si>
+  <si>
+    <t>GHMMyuser123467</t>
+  </si>
+  <si>
+    <t>GHMMyuser123467@gmail.com</t>
+  </si>
+  <si>
+    <t>GMyuse1r123467</t>
   </si>
 </sst>
 </file>
@@ -375,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,10 +410,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -421,4 +432,56 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76566A5A-0537-40D7-AAD4-5BA83124325D}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com" xr:uid="{40843B17-B807-447C-BBC9-C8CAA5454315}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{86C0B259-9C29-4FA9-8FF6-85B6EB31D691}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>